--- a/pred_ohlcv/54/2019-10-19 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 ENJ ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>67.8</v>
       </c>
       <c r="F2" t="n">
-        <v>955.3244</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>67.51333333333328</v>
+        <v>67.50499999999994</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>67.8</v>
       </c>
       <c r="F3" t="n">
-        <v>938.112</v>
+        <v>955.3244</v>
       </c>
       <c r="G3" t="n">
-        <v>67.5216666666666</v>
+        <v>67.51333333333328</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F4" t="n">
-        <v>267.6108</v>
+        <v>938.112</v>
       </c>
       <c r="G4" t="n">
-        <v>67.52333333333327</v>
+        <v>67.5216666666666</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>267.6108</v>
       </c>
       <c r="G5" t="n">
-        <v>67.5266666666666</v>
+        <v>67.52333333333327</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="C6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="D6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="E6" t="n">
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1852.9999</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>67.5266666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>67.3</v>
       </c>
       <c r="F7" t="n">
-        <v>655</v>
+        <v>1852.9999</v>
       </c>
       <c r="G7" t="n">
         <v>67.5266666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E8" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F8" t="n">
-        <v>5460</v>
+        <v>655</v>
       </c>
       <c r="G8" t="n">
-        <v>67.52499999999992</v>
+        <v>67.5266666666666</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>67.2</v>
       </c>
       <c r="F9" t="n">
-        <v>1081</v>
+        <v>5460</v>
       </c>
       <c r="G9" t="n">
-        <v>67.52333333333326</v>
+        <v>67.52499999999992</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E10" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F10" t="n">
-        <v>935.7667</v>
+        <v>1081</v>
       </c>
       <c r="G10" t="n">
-        <v>67.51999999999992</v>
+        <v>67.52333333333326</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="D11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E11" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>935.7667</v>
       </c>
       <c r="G11" t="n">
-        <v>67.51666666666659</v>
+        <v>67.51999999999992</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>67.5</v>
       </c>
       <c r="C12" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D12" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E12" t="n">
         <v>67.5</v>
       </c>
       <c r="F12" t="n">
-        <v>5174.583857248521</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>67.51499999999993</v>
+        <v>67.51666666666659</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C13" t="n">
         <v>67.59999999999999</v>
@@ -703,15 +741,18 @@
         <v>67.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>5174.583857248521</v>
       </c>
       <c r="G13" t="n">
-        <v>67.51499999999994</v>
+        <v>67.51499999999993</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>67.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>67.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>7770</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
-        <v>67.50499999999994</v>
+        <v>67.51499999999994</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="C15" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="D15" t="n">
-        <v>67.5</v>
+        <v>67.3</v>
       </c>
       <c r="E15" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>7770</v>
       </c>
       <c r="G15" t="n">
-        <v>67.49833333333328</v>
+        <v>67.50499999999994</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="C16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="D16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="E16" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="F16" t="n">
-        <v>3250</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>67.48666666666661</v>
+        <v>67.49833333333328</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="C17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="D17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="E17" t="n">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>3250</v>
       </c>
       <c r="G17" t="n">
-        <v>67.48166666666661</v>
+        <v>67.48666666666661</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="C18" t="n">
         <v>67.5</v>
@@ -833,15 +886,18 @@
         <v>67.5</v>
       </c>
       <c r="E18" t="n">
-        <v>67.2</v>
+        <v>67.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>67.47999999999995</v>
+        <v>67.48166666666661</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="G19" t="n">
         <v>67.47999999999995</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>161.2548</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>67.47499999999995</v>
+        <v>67.47999999999995</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>67.3</v>
       </c>
       <c r="F21" t="n">
-        <v>426.9884</v>
+        <v>161.2548</v>
       </c>
       <c r="G21" t="n">
-        <v>67.46666666666661</v>
+        <v>67.47499999999995</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>67.3</v>
       </c>
       <c r="F22" t="n">
-        <v>2100</v>
+        <v>426.9884</v>
       </c>
       <c r="G22" t="n">
-        <v>67.45999999999995</v>
+        <v>67.46666666666661</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E23" t="n">
-        <v>67.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F23" t="n">
-        <v>171.3313</v>
+        <v>2100</v>
       </c>
       <c r="G23" t="n">
         <v>67.45999999999995</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>171.3313</v>
       </c>
       <c r="G24" t="n">
-        <v>67.46833333333329</v>
+        <v>67.45999999999995</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>67.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>7572.3774</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>67.46833333333328</v>
+        <v>67.46833333333329</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E26" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2780</v>
+        <v>7572.3774</v>
       </c>
       <c r="G26" t="n">
-        <v>67.46333333333328</v>
+        <v>67.46833333333328</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E27" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>2780</v>
       </c>
       <c r="G27" t="n">
-        <v>67.46499999999995</v>
+        <v>67.46333333333328</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1093,15 +1176,18 @@
         <v>67.3</v>
       </c>
       <c r="E28" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F28" t="n">
-        <v>9072.2662</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>67.46666666666663</v>
+        <v>67.46499999999995</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1119,15 +1205,18 @@
         <v>67.3</v>
       </c>
       <c r="E29" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F29" t="n">
-        <v>33061.367</v>
+        <v>9072.2662</v>
       </c>
       <c r="G29" t="n">
-        <v>67.4633333333333</v>
+        <v>67.46666666666663</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E30" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="F30" t="n">
-        <v>3294</v>
+        <v>33061.367</v>
       </c>
       <c r="G30" t="n">
-        <v>67.45666666666662</v>
+        <v>67.4633333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>67.2</v>
       </c>
       <c r="C31" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D31" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E31" t="n">
         <v>67.2</v>
       </c>
       <c r="F31" t="n">
-        <v>1010</v>
+        <v>3294</v>
       </c>
       <c r="G31" t="n">
-        <v>67.45166666666663</v>
+        <v>67.45666666666662</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>67.2</v>
       </c>
       <c r="C32" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="D32" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E32" t="n">
         <v>67.2</v>
       </c>
       <c r="F32" t="n">
-        <v>11660</v>
+        <v>1010</v>
       </c>
       <c r="G32" t="n">
-        <v>67.44499999999996</v>
+        <v>67.45166666666663</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>67.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3424.7</v>
+        <v>11660</v>
       </c>
       <c r="G33" t="n">
         <v>67.44499999999996</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>67.2</v>
       </c>
       <c r="F34" t="n">
-        <v>920.6597</v>
+        <v>3424.7</v>
       </c>
       <c r="G34" t="n">
-        <v>67.43999999999997</v>
+        <v>67.44499999999996</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>67.2</v>
       </c>
       <c r="F35" t="n">
-        <v>7302.9999</v>
+        <v>920.6597</v>
       </c>
       <c r="G35" t="n">
-        <v>67.42999999999996</v>
+        <v>67.43999999999997</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C36" t="n">
         <v>67.2</v>
       </c>
       <c r="D36" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E36" t="n">
         <v>67.2</v>
       </c>
       <c r="F36" t="n">
-        <v>317.8137</v>
+        <v>7302.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>67.41999999999994</v>
+        <v>67.42999999999996</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="C37" t="n">
         <v>67.2</v>
       </c>
       <c r="D37" t="n">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="E37" t="n">
         <v>67.2</v>
       </c>
       <c r="F37" t="n">
-        <v>37519.6897</v>
+        <v>317.8137</v>
       </c>
       <c r="G37" t="n">
-        <v>67.41333333333328</v>
+        <v>67.41999999999994</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>67.2</v>
       </c>
       <c r="F38" t="n">
-        <v>3149</v>
+        <v>37519.6897</v>
       </c>
       <c r="G38" t="n">
-        <v>67.40999999999995</v>
+        <v>67.41333333333328</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>67.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>3149</v>
       </c>
       <c r="G39" t="n">
-        <v>67.40666666666662</v>
+        <v>67.40999999999995</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,13 +1527,16 @@
         <v>67.2</v>
       </c>
       <c r="F40" t="n">
-        <v>17333.9999</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>67.40333333333329</v>
+        <v>67.40666666666662</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1434,13 +1556,16 @@
         <v>67.2</v>
       </c>
       <c r="F41" t="n">
-        <v>435.0939</v>
+        <v>17333.9999</v>
       </c>
       <c r="G41" t="n">
-        <v>67.3983333333333</v>
+        <v>67.40333333333329</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1448,25 +1573,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="D42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="E42" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F42" t="n">
-        <v>9509.8351</v>
+        <v>435.0939</v>
       </c>
       <c r="G42" t="n">
-        <v>67.39166666666664</v>
+        <v>67.3983333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1474,25 +1602,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>1500</v>
+        <v>9509.8351</v>
       </c>
       <c r="G43" t="n">
-        <v>67.3833333333333</v>
+        <v>67.39166666666664</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1512,13 +1643,16 @@
         <v>67.2</v>
       </c>
       <c r="F44" t="n">
-        <v>1683.9999</v>
+        <v>1500</v>
       </c>
       <c r="G44" t="n">
-        <v>67.37499999999997</v>
+        <v>67.3833333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1526,25 +1660,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="C45" t="n">
-        <v>66.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D45" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E45" t="n">
-        <v>66.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F45" t="n">
-        <v>20540.4283</v>
+        <v>1683.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>67.36499999999997</v>
+        <v>67.37499999999997</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>67</v>
+      </c>
+      <c r="C46" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="C46" t="n">
-        <v>66.7</v>
-      </c>
       <c r="D46" t="n">
+        <v>67</v>
+      </c>
+      <c r="E46" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="E46" t="n">
-        <v>66.7</v>
-      </c>
       <c r="F46" t="n">
-        <v>105338.5905</v>
+        <v>20540.4283</v>
       </c>
       <c r="G46" t="n">
-        <v>67.35166666666663</v>
+        <v>67.36499999999997</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F47" t="n">
-        <v>316.2636</v>
+        <v>105338.5905</v>
       </c>
       <c r="G47" t="n">
-        <v>67.3383333333333</v>
+        <v>67.35166666666663</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,13 +1759,16 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>6975.4338</v>
+        <v>316.2636</v>
       </c>
       <c r="G48" t="n">
-        <v>67.32666666666663</v>
+        <v>67.3383333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1642,13 +1788,16 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>2708.3026</v>
+        <v>6975.4338</v>
       </c>
       <c r="G49" t="n">
-        <v>67.31499999999997</v>
+        <v>67.32666666666663</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>163.8502</v>
+        <v>2708.3026</v>
       </c>
       <c r="G50" t="n">
-        <v>67.29999999999997</v>
+        <v>67.31499999999997</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E51" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F51" t="n">
-        <v>161.3313</v>
+        <v>163.8502</v>
       </c>
       <c r="G51" t="n">
-        <v>67.28499999999995</v>
+        <v>67.29999999999997</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>66.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>27.5075</v>
+        <v>161.3313</v>
       </c>
       <c r="G52" t="n">
-        <v>67.2733333333333</v>
+        <v>67.28499999999995</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1086</v>
+        <v>27.5075</v>
       </c>
       <c r="G53" t="n">
-        <v>67.24666666666663</v>
+        <v>67.2733333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>66.40000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>222</v>
+        <v>1086</v>
       </c>
       <c r="G54" t="n">
-        <v>67.23166666666661</v>
+        <v>67.24666666666663</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>5336.1004</v>
+        <v>222</v>
       </c>
       <c r="G55" t="n">
-        <v>67.21333333333328</v>
+        <v>67.23166666666661</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C56" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D56" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="E56" t="n">
-        <v>66.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F56" t="n">
-        <v>11541.3946</v>
+        <v>5336.1004</v>
       </c>
       <c r="G56" t="n">
-        <v>67.19499999999995</v>
+        <v>67.21333333333328</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="E57" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1770.6686</v>
+        <v>11541.3946</v>
       </c>
       <c r="G57" t="n">
-        <v>67.16999999999994</v>
+        <v>67.19499999999995</v>
       </c>
       <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E58" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F58" t="n">
-        <v>5312.0061</v>
+        <v>1770.6686</v>
       </c>
       <c r="G58" t="n">
-        <v>67.14999999999995</v>
+        <v>67.16999999999994</v>
       </c>
       <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>66.3</v>
       </c>
       <c r="F59" t="n">
-        <v>27.4388</v>
+        <v>5312.0061</v>
       </c>
       <c r="G59" t="n">
-        <v>67.13166666666662</v>
+        <v>67.14999999999995</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>66.3</v>
       </c>
       <c r="F60" t="n">
-        <v>7846.5551</v>
+        <v>27.4388</v>
       </c>
       <c r="G60" t="n">
-        <v>67.11333333333329</v>
+        <v>67.13166666666662</v>
       </c>
       <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>66.3</v>
       </c>
       <c r="F61" t="n">
-        <v>25214.8119</v>
+        <v>7846.5551</v>
       </c>
       <c r="G61" t="n">
-        <v>67.0883333333333</v>
+        <v>67.11333333333329</v>
       </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E62" t="n">
-        <v>66.59999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F62" t="n">
-        <v>12.4624</v>
+        <v>25214.8119</v>
       </c>
       <c r="G62" t="n">
-        <v>67.06833333333329</v>
+        <v>67.0883333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>22.406</v>
+        <v>12.4624</v>
       </c>
       <c r="G63" t="n">
-        <v>67.04666666666661</v>
+        <v>67.06833333333329</v>
       </c>
       <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>66.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>22.406</v>
       </c>
       <c r="G64" t="n">
-        <v>67.03166666666661</v>
+        <v>67.04666666666661</v>
       </c>
       <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>66.5</v>
       </c>
       <c r="C65" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D65" t="n">
         <v>66.5</v>
       </c>
       <c r="E65" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F65" t="n">
-        <v>1107.5609</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>67.00833333333328</v>
+        <v>67.03166666666661</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C66" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="E66" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>396</v>
+        <v>1107.5609</v>
       </c>
       <c r="G66" t="n">
-        <v>66.98833333333327</v>
+        <v>67.00833333333328</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>66.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>110</v>
+        <v>396</v>
       </c>
       <c r="G67" t="n">
-        <v>66.96833333333328</v>
+        <v>66.98833333333327</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>66.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="G68" t="n">
-        <v>66.94999999999995</v>
+        <v>66.96833333333328</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2156,18 +2362,21 @@
         <v>66.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E69" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="G69" t="n">
-        <v>66.9316666666666</v>
+        <v>66.94999999999995</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>66.91333333333327</v>
+        <v>66.9316666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E71" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F71" t="n">
-        <v>41.8341</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>66.89333333333327</v>
+        <v>66.91333333333327</v>
       </c>
       <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="C72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="D72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="E72" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="F72" t="n">
-        <v>3460</v>
+        <v>41.8341</v>
       </c>
       <c r="G72" t="n">
-        <v>66.87499999999994</v>
+        <v>66.89333333333327</v>
       </c>
       <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C73" t="n">
-        <v>66.7</v>
+        <v>66.5</v>
       </c>
       <c r="D73" t="n">
-        <v>66.7</v>
+        <v>66.5</v>
       </c>
       <c r="E73" t="n">
-        <v>66.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F73" t="n">
-        <v>51664.9714</v>
+        <v>3460</v>
       </c>
       <c r="G73" t="n">
-        <v>66.85999999999994</v>
+        <v>66.87499999999994</v>
       </c>
       <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,10 +2501,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C74" t="n">
         <v>66.7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>66.59999999999999</v>
       </c>
       <c r="D74" t="n">
         <v>66.7</v>
@@ -2292,12 +2513,15 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>51664.9714</v>
       </c>
       <c r="G74" t="n">
-        <v>66.84999999999994</v>
+        <v>66.85999999999994</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C75" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>66.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E75" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>3701.9998</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>66.83499999999994</v>
+        <v>66.84999999999994</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>6605.3748</v>
+        <v>3701.9998</v>
       </c>
       <c r="G76" t="n">
-        <v>66.82499999999995</v>
+        <v>66.83499999999994</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>11549.8113</v>
+        <v>6605.3748</v>
       </c>
       <c r="G77" t="n">
-        <v>66.80999999999993</v>
+        <v>66.82499999999995</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>66.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>20530</v>
+        <v>11549.8113</v>
       </c>
       <c r="G78" t="n">
-        <v>66.79833333333328</v>
+        <v>66.80999999999993</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="C79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E79" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F79" t="n">
-        <v>2034.2875</v>
+        <v>20530</v>
       </c>
       <c r="G79" t="n">
-        <v>66.78333333333327</v>
+        <v>66.79833333333328</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="C80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="D80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E80" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="F80" t="n">
-        <v>63964.3362</v>
+        <v>2034.2875</v>
       </c>
       <c r="G80" t="n">
-        <v>66.77499999999993</v>
+        <v>66.78333333333327</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>66.8</v>
       </c>
       <c r="C81" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D81" t="n">
-        <v>66.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E81" t="n">
         <v>66.8</v>
       </c>
       <c r="F81" t="n">
-        <v>20875.5413</v>
+        <v>63964.3362</v>
       </c>
       <c r="G81" t="n">
-        <v>66.76833333333327</v>
+        <v>66.77499999999993</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>66.8</v>
       </c>
       <c r="C82" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>66.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E82" t="n">
         <v>66.8</v>
       </c>
       <c r="F82" t="n">
-        <v>291.5032</v>
+        <v>20875.5413</v>
       </c>
       <c r="G82" t="n">
-        <v>66.75999999999993</v>
+        <v>66.76833333333327</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>66.8</v>
       </c>
       <c r="F83" t="n">
-        <v>131.1002</v>
+        <v>291.5032</v>
       </c>
       <c r="G83" t="n">
-        <v>66.74666666666661</v>
+        <v>66.75999999999993</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="C84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="D84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E84" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="F84" t="n">
-        <v>929.5757</v>
+        <v>131.1002</v>
       </c>
       <c r="G84" t="n">
-        <v>66.73166666666661</v>
+        <v>66.74666666666661</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>66.7</v>
       </c>
       <c r="F85" t="n">
-        <v>610</v>
+        <v>929.5757</v>
       </c>
       <c r="G85" t="n">
-        <v>66.72166666666661</v>
+        <v>66.73166666666661</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>66.7</v>
       </c>
       <c r="F86" t="n">
-        <v>476.4</v>
+        <v>610</v>
       </c>
       <c r="G86" t="n">
-        <v>66.71333333333327</v>
+        <v>66.72166666666661</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="C87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="D87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="E87" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>476.4</v>
       </c>
       <c r="G87" t="n">
-        <v>66.70499999999994</v>
+        <v>66.71333333333327</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>66.8</v>
       </c>
       <c r="F88" t="n">
-        <v>1013</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="n">
-        <v>66.6966666666666</v>
+        <v>66.70499999999994</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>66.8</v>
       </c>
       <c r="F89" t="n">
-        <v>3874.9999</v>
+        <v>1013</v>
       </c>
       <c r="G89" t="n">
-        <v>66.68833333333326</v>
+        <v>66.6966666666666</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>66.8</v>
       </c>
       <c r="F90" t="n">
-        <v>661.7488</v>
+        <v>3874.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>66.6816666666666</v>
+        <v>66.68833333333326</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>66.8</v>
       </c>
       <c r="F91" t="n">
-        <v>29046.3214</v>
+        <v>661.7488</v>
       </c>
       <c r="G91" t="n">
-        <v>66.67333333333328</v>
+        <v>66.6816666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="D92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="E92" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="F92" t="n">
-        <v>28954.2635</v>
+        <v>29046.3214</v>
       </c>
       <c r="G92" t="n">
-        <v>66.66999999999994</v>
+        <v>66.67333333333328</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>67</v>
       </c>
       <c r="C93" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="D93" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="E93" t="n">
         <v>67</v>
       </c>
       <c r="F93" t="n">
-        <v>54501.9315</v>
+        <v>28954.2635</v>
       </c>
       <c r="G93" t="n">
-        <v>66.67166666666661</v>
+        <v>66.66999999999994</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,7 +3081,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="C94" t="n">
         <v>67.3</v>
@@ -2809,15 +3090,18 @@
         <v>67.3</v>
       </c>
       <c r="E94" t="n">
-        <v>67.3</v>
+        <v>67</v>
       </c>
       <c r="F94" t="n">
-        <v>2478.3209</v>
+        <v>54501.9315</v>
       </c>
       <c r="G94" t="n">
-        <v>66.67333333333329</v>
+        <v>66.67166666666661</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C95" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="D95" t="n">
-        <v>67.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E95" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>2478.3209</v>
       </c>
       <c r="G95" t="n">
-        <v>66.66999999999996</v>
+        <v>66.67333333333329</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="D96" t="n">
-        <v>67.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="F96" t="n">
-        <v>489.6335</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="n">
         <v>66.66999999999996</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="D97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="E97" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="F97" t="n">
-        <v>90170.14479999999</v>
+        <v>489.6335</v>
       </c>
       <c r="G97" t="n">
-        <v>66.67166666666664</v>
+        <v>66.66999999999996</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>67.3</v>
       </c>
       <c r="C98" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D98" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E98" t="n">
         <v>67.3</v>
       </c>
       <c r="F98" t="n">
-        <v>14767.77545207715</v>
+        <v>90170.14479999999</v>
       </c>
       <c r="G98" t="n">
-        <v>66.67499999999997</v>
+        <v>66.67166666666664</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,7 +3226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C99" t="n">
         <v>67.40000000000001</v>
@@ -2939,15 +3235,18 @@
         <v>67.40000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F99" t="n">
-        <v>36</v>
+        <v>14767.77545207715</v>
       </c>
       <c r="G99" t="n">
-        <v>66.67833333333331</v>
+        <v>66.67499999999997</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>600.1708</v>
+        <v>36</v>
       </c>
       <c r="G100" t="n">
-        <v>66.67499999999998</v>
+        <v>66.67833333333331</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="D101" t="n">
-        <v>67.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>67.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="F101" t="n">
-        <v>115.8753</v>
+        <v>600.1708</v>
       </c>
       <c r="G101" t="n">
-        <v>66.67833333333331</v>
+        <v>66.67499999999998</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>67.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>49138.9955</v>
+        <v>115.8753</v>
       </c>
       <c r="G102" t="n">
-        <v>66.68499999999999</v>
+        <v>66.67833333333331</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3040,18 +3348,21 @@
         <v>67.5</v>
       </c>
       <c r="D103" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E103" t="n">
         <v>67.5</v>
       </c>
       <c r="F103" t="n">
-        <v>769.843</v>
+        <v>49138.9955</v>
       </c>
       <c r="G103" t="n">
-        <v>66.68999999999998</v>
+        <v>66.68499999999999</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>67.5</v>
       </c>
       <c r="C104" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D104" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E104" t="n">
         <v>67.5</v>
       </c>
       <c r="F104" t="n">
-        <v>19315.3768</v>
+        <v>769.843</v>
       </c>
       <c r="G104" t="n">
-        <v>66.69666666666666</v>
+        <v>66.68999999999998</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>67.5</v>
       </c>
       <c r="C105" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E105" t="n">
         <v>67.5</v>
       </c>
       <c r="F105" t="n">
-        <v>6472.756</v>
+        <v>19315.3768</v>
       </c>
       <c r="G105" t="n">
-        <v>66.70666666666665</v>
+        <v>66.69666666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C106" t="n">
         <v>67.5</v>
       </c>
       <c r="D106" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E106" t="n">
         <v>67.5</v>
       </c>
       <c r="F106" t="n">
-        <v>763.4999</v>
+        <v>6472.756</v>
       </c>
       <c r="G106" t="n">
-        <v>66.71999999999998</v>
+        <v>66.70666666666665</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,13 +3458,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C107" t="n">
         <v>67.5</v>
       </c>
       <c r="D107" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E107" t="n">
         <v>67.5</v>
@@ -3153,9 +3473,12 @@
         <v>763.4999</v>
       </c>
       <c r="G107" t="n">
-        <v>66.73499999999999</v>
+        <v>66.71999999999998</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C108" t="n">
         <v>67.5</v>
       </c>
       <c r="D108" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E108" t="n">
         <v>67.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1558</v>
+        <v>763.4999</v>
       </c>
       <c r="G108" t="n">
-        <v>66.74999999999999</v>
+        <v>66.73499999999999</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>67.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D109" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F109" t="n">
-        <v>4478.9556</v>
+        <v>1558</v>
       </c>
       <c r="G109" t="n">
-        <v>66.76666666666667</v>
+        <v>66.74999999999999</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>1878.8647</v>
+        <v>4478.9556</v>
       </c>
       <c r="G110" t="n">
-        <v>66.785</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>1789.0475</v>
+        <v>1878.8647</v>
       </c>
       <c r="G111" t="n">
-        <v>66.80499999999999</v>
+        <v>66.785</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>951</v>
+        <v>1789.0475</v>
       </c>
       <c r="G112" t="n">
-        <v>66.82166666666666</v>
+        <v>66.80499999999999</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>1759.0899</v>
+        <v>951</v>
       </c>
       <c r="G113" t="n">
-        <v>66.84166666666665</v>
+        <v>66.82166666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>4876</v>
+        <v>1759.0899</v>
       </c>
       <c r="G114" t="n">
-        <v>66.86166666666665</v>
+        <v>66.84166666666665</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>1221.9999</v>
+        <v>4876</v>
       </c>
       <c r="G115" t="n">
-        <v>66.88333333333331</v>
+        <v>66.86166666666665</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>67.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>1221.9999</v>
       </c>
       <c r="G116" t="n">
-        <v>66.90666666666665</v>
+        <v>66.88333333333331</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="D117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E117" t="n">
-        <v>67.59999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F117" t="n">
-        <v>27823.9999</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>66.92999999999998</v>
+        <v>66.90666666666665</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C118" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E118" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>2263</v>
+        <v>27823.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>66.95166666666664</v>
+        <v>66.92999999999998</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C119" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="E119" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>5972</v>
+        <v>2263</v>
       </c>
       <c r="G119" t="n">
-        <v>66.9733333333333</v>
+        <v>66.95166666666664</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>105.9731</v>
+        <v>5972</v>
       </c>
       <c r="G120" t="n">
-        <v>66.99499999999996</v>
+        <v>66.9733333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>67.59999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>7000.145</v>
+        <v>105.9731</v>
       </c>
       <c r="G121" t="n">
-        <v>67.01666666666662</v>
+        <v>66.99499999999996</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>275.5487</v>
+        <v>7000.145</v>
       </c>
       <c r="G122" t="n">
-        <v>67.03499999999995</v>
+        <v>67.01666666666662</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>67.7</v>
       </c>
       <c r="F123" t="n">
-        <v>251.9618</v>
+        <v>275.5487</v>
       </c>
       <c r="G123" t="n">
-        <v>67.05499999999996</v>
+        <v>67.03499999999995</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>67.7</v>
       </c>
       <c r="F124" t="n">
-        <v>213.7521</v>
+        <v>251.9618</v>
       </c>
       <c r="G124" t="n">
-        <v>67.07499999999996</v>
+        <v>67.05499999999996</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>67.7</v>
       </c>
       <c r="F125" t="n">
-        <v>900</v>
+        <v>213.7521</v>
       </c>
       <c r="G125" t="n">
-        <v>67.10166666666662</v>
+        <v>67.07499999999996</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>67.7</v>
       </c>
       <c r="F126" t="n">
-        <v>2026.9999</v>
+        <v>900</v>
       </c>
       <c r="G126" t="n">
-        <v>67.12833333333329</v>
+        <v>67.10166666666662</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E127" t="n">
-        <v>67.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>2026.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>67.15833333333329</v>
+        <v>67.12833333333329</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>10454.1939</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>67.18666666666662</v>
+        <v>67.15833333333329</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="C129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="D129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E129" t="n">
-        <v>67.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="F129" t="n">
-        <v>47501.549</v>
+        <v>10454.1939</v>
       </c>
       <c r="G129" t="n">
-        <v>67.21666666666663</v>
+        <v>67.18666666666662</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>67.90000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E130" t="n">
         <v>67.90000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>2155.9999</v>
+        <v>47501.549</v>
       </c>
       <c r="G130" t="n">
-        <v>67.24666666666664</v>
+        <v>67.21666666666663</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C131" t="n">
         <v>68</v>
       </c>
       <c r="D131" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E131" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>18783.8296</v>
+        <v>2155.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>67.27499999999996</v>
+        <v>67.24666666666664</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="D132" t="n">
-        <v>67.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="F132" t="n">
-        <v>14.7492</v>
+        <v>18783.8296</v>
       </c>
       <c r="G132" t="n">
-        <v>67.29666666666664</v>
+        <v>67.27499999999996</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="C133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="D133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="E133" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="F133" t="n">
-        <v>3108.6395</v>
+        <v>14.7492</v>
       </c>
       <c r="G133" t="n">
-        <v>67.3133333333333</v>
+        <v>67.29666666666664</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.2</v>
+        <v>67.7</v>
       </c>
       <c r="C134" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D134" t="n">
-        <v>68.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E134" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F134" t="n">
-        <v>123533.7695866473</v>
+        <v>3108.6395</v>
       </c>
       <c r="G134" t="n">
-        <v>67.33833333333331</v>
+        <v>67.3133333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C135" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="C135" t="n">
-        <v>68.40000000000001</v>
-      </c>
       <c r="D135" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E135" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>27019.1959</v>
+        <v>123533.7695866473</v>
       </c>
       <c r="G135" t="n">
-        <v>67.36833333333331</v>
+        <v>67.33833333333331</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>68.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>68.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>3049.9707</v>
+        <v>27019.1959</v>
       </c>
       <c r="G136" t="n">
-        <v>67.39666666666665</v>
+        <v>67.36833333333331</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,25 +4328,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="C137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="D137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="E137" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="F137" t="n">
-        <v>1502</v>
+        <v>3049.9707</v>
       </c>
       <c r="G137" t="n">
-        <v>67.41999999999999</v>
+        <v>67.39666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3944,25 +4357,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E138" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F138" t="n">
-        <v>7172.9446</v>
+        <v>1502</v>
       </c>
       <c r="G138" t="n">
-        <v>67.44166666666665</v>
+        <v>67.41999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3982,12 +4398,15 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>21532.9377</v>
+        <v>7172.9446</v>
       </c>
       <c r="G139" t="n">
-        <v>67.46499999999999</v>
+        <v>67.44166666666665</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>1603.3868</v>
+        <v>21532.9377</v>
       </c>
       <c r="G140" t="n">
-        <v>67.48666666666666</v>
+        <v>67.46499999999999</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>1835.9999</v>
+        <v>1603.3868</v>
       </c>
       <c r="G141" t="n">
-        <v>67.50666666666667</v>
+        <v>67.48666666666666</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C142" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>68.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E142" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>10423.8775</v>
+        <v>1835.9999</v>
       </c>
       <c r="G142" t="n">
-        <v>67.52833333333334</v>
+        <v>67.50666666666667</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>68.2</v>
       </c>
       <c r="C143" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="E143" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>104.0064</v>
+        <v>10423.8775</v>
       </c>
       <c r="G143" t="n">
-        <v>67.55166666666666</v>
+        <v>67.52833333333334</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>68.2</v>
       </c>
       <c r="F144" t="n">
-        <v>1500</v>
+        <v>104.0064</v>
       </c>
       <c r="G144" t="n">
-        <v>67.57666666666665</v>
+        <v>67.55166666666666</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>68.2</v>
       </c>
       <c r="F145" t="n">
-        <v>8470</v>
+        <v>1500</v>
       </c>
       <c r="G145" t="n">
-        <v>67.60166666666666</v>
+        <v>67.57666666666665</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E146" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F146" t="n">
-        <v>14690.4341</v>
+        <v>8470</v>
       </c>
       <c r="G146" t="n">
-        <v>67.625</v>
+        <v>67.60166666666666</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>68.09999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>1853.8483</v>
+        <v>14690.4341</v>
       </c>
       <c r="G147" t="n">
-        <v>67.64666666666668</v>
+        <v>67.625</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>1853.8483</v>
       </c>
       <c r="G148" t="n">
-        <v>67.67333333333333</v>
+        <v>67.64666666666668</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>951.683</v>
+        <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>67.69999999999999</v>
+        <v>67.67333333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>1158.6551</v>
+        <v>951.683</v>
       </c>
       <c r="G150" t="n">
-        <v>67.72666666666665</v>
+        <v>67.69999999999999</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>3630</v>
+        <v>1158.6551</v>
       </c>
       <c r="G151" t="n">
-        <v>67.7533333333333</v>
+        <v>67.72666666666665</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>7260</v>
+        <v>3630</v>
       </c>
       <c r="G152" t="n">
-        <v>67.77666666666663</v>
+        <v>67.7533333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>6023.8175</v>
+        <v>7260</v>
       </c>
       <c r="G153" t="n">
-        <v>67.79666666666662</v>
+        <v>67.77666666666663</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,12 +4833,15 @@
         <v>68.5</v>
       </c>
       <c r="F154" t="n">
-        <v>119317.8599</v>
+        <v>6023.8175</v>
       </c>
       <c r="G154" t="n">
-        <v>67.81666666666662</v>
+        <v>67.79666666666662</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="C155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="D155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="E155" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="F155" t="n">
-        <v>1315.6477</v>
+        <v>119317.8599</v>
       </c>
       <c r="G155" t="n">
-        <v>67.84499999999996</v>
+        <v>67.81666666666662</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>68.7</v>
       </c>
       <c r="F156" t="n">
-        <v>25020</v>
+        <v>1315.6477</v>
       </c>
       <c r="G156" t="n">
-        <v>67.86999999999995</v>
+        <v>67.84499999999996</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>68.7</v>
       </c>
       <c r="C157" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="D157" t="n">
         <v>68.7</v>
       </c>
       <c r="E157" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="F157" t="n">
-        <v>3500</v>
+        <v>25020</v>
       </c>
       <c r="G157" t="n">
-        <v>67.88999999999994</v>
+        <v>67.86999999999995</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,25 +4937,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C158" t="n">
         <v>68.5</v>
       </c>
-      <c r="C158" t="n">
-        <v>68.40000000000001</v>
-      </c>
       <c r="D158" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="E158" t="n">
         <v>68.5</v>
       </c>
-      <c r="E158" t="n">
-        <v>68.40000000000001</v>
-      </c>
       <c r="F158" t="n">
-        <v>13033.4569</v>
+        <v>3500</v>
       </c>
       <c r="G158" t="n">
-        <v>67.90666666666661</v>
+        <v>67.88999999999994</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="C159" t="n">
-        <v>68.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>68.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E159" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>14531.68099085631</v>
+        <v>13033.4569</v>
       </c>
       <c r="G159" t="n">
-        <v>67.9316666666666</v>
+        <v>67.90666666666661</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C160" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>68.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F160" t="n">
-        <v>29539.3475</v>
+        <v>14531.68099085631</v>
       </c>
       <c r="G160" t="n">
-        <v>67.95499999999994</v>
+        <v>67.9316666666666</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C161" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>68.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>1590</v>
+        <v>29539.3475</v>
       </c>
       <c r="G161" t="n">
-        <v>67.97333333333327</v>
+        <v>67.95499999999994</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C162" t="n">
         <v>68.5</v>
       </c>
       <c r="D162" t="n">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E162" t="n">
         <v>68.5</v>
       </c>
       <c r="F162" t="n">
-        <v>11966.0792</v>
+        <v>1590</v>
       </c>
       <c r="G162" t="n">
-        <v>67.98999999999994</v>
+        <v>67.97333333333327</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F163" t="n">
-        <v>5056.9999</v>
+        <v>11966.0792</v>
       </c>
       <c r="G163" t="n">
-        <v>68.00499999999992</v>
+        <v>67.98999999999994</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>68.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>5056.9999</v>
       </c>
       <c r="G164" t="n">
-        <v>68.02499999999993</v>
+        <v>68.00499999999992</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="C165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="D165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="E165" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="F165" t="n">
-        <v>38797.0131</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>68.0416666666666</v>
+        <v>68.02499999999993</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>68.5</v>
       </c>
       <c r="F166" t="n">
-        <v>12124.677</v>
+        <v>38797.0131</v>
       </c>
       <c r="G166" t="n">
-        <v>68.05833333333327</v>
+        <v>68.0416666666666</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="C167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="D167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="E167" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="F167" t="n">
-        <v>12931.721</v>
+        <v>12124.677</v>
       </c>
       <c r="G167" t="n">
-        <v>68.07166666666662</v>
+        <v>68.05833333333327</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>68.3</v>
       </c>
       <c r="F168" t="n">
-        <v>3335.9647</v>
+        <v>12931.721</v>
       </c>
       <c r="G168" t="n">
-        <v>68.08499999999995</v>
+        <v>68.07166666666662</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>68.3</v>
       </c>
       <c r="F169" t="n">
-        <v>503.9939</v>
+        <v>3335.9647</v>
       </c>
       <c r="G169" t="n">
-        <v>68.09666666666662</v>
+        <v>68.08499999999995</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="C170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E170" t="n">
-        <v>68.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F170" t="n">
-        <v>15306.6229</v>
+        <v>503.9939</v>
       </c>
       <c r="G170" t="n">
-        <v>68.10999999999996</v>
+        <v>68.09666666666662</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>15900</v>
+        <v>15306.6229</v>
       </c>
       <c r="G171" t="n">
-        <v>68.12833333333329</v>
+        <v>68.10999999999996</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>68.7</v>
       </c>
       <c r="F172" t="n">
-        <v>72793.2896</v>
+        <v>15900</v>
       </c>
       <c r="G172" t="n">
-        <v>68.14666666666663</v>
+        <v>68.12833333333329</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="C173" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D173" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="E173" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="F173" t="n">
-        <v>2080</v>
+        <v>72793.2896</v>
       </c>
       <c r="G173" t="n">
-        <v>68.15999999999997</v>
+        <v>68.14666666666663</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="C174" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="E174" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>207681</v>
+        <v>2080</v>
       </c>
       <c r="G174" t="n">
-        <v>68.16499999999998</v>
+        <v>68.15999999999997</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="C175" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D175" t="n">
-        <v>68.2</v>
+        <v>68.7</v>
       </c>
       <c r="E175" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>278.3724</v>
+        <v>207681</v>
       </c>
       <c r="G175" t="n">
-        <v>68.17499999999998</v>
+        <v>68.16499999999998</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="C176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="D176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="E176" t="n">
-        <v>67.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="F176" t="n">
-        <v>13999</v>
+        <v>278.3724</v>
       </c>
       <c r="G176" t="n">
-        <v>68.17666666666665</v>
+        <v>68.17499999999998</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>24682.4888</v>
+        <v>13999</v>
       </c>
       <c r="G177" t="n">
-        <v>68.17833333333331</v>
+        <v>68.17666666666665</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E178" t="n">
-        <v>68.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="F178" t="n">
-        <v>564</v>
+        <v>24682.4888</v>
       </c>
       <c r="G178" t="n">
-        <v>68.18666666666664</v>
+        <v>68.17833333333331</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5016,18 +5552,21 @@
         <v>68.09999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E179" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>4415.2863</v>
+        <v>564</v>
       </c>
       <c r="G179" t="n">
-        <v>68.19499999999998</v>
+        <v>68.18666666666664</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5042,18 +5581,21 @@
         <v>68.09999999999999</v>
       </c>
       <c r="D180" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E180" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F180" t="n">
-        <v>1510</v>
+        <v>4415.2863</v>
       </c>
       <c r="G180" t="n">
-        <v>68.2033333333333</v>
+        <v>68.19499999999998</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F181" t="n">
-        <v>2000</v>
+        <v>1510</v>
       </c>
       <c r="G181" t="n">
-        <v>68.20999999999998</v>
+        <v>68.2033333333333</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="C182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="D182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="E182" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="F182" t="n">
-        <v>1312.3586</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="n">
-        <v>68.21166666666664</v>
+        <v>68.20999999999998</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,544 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="C183" t="n">
-        <v>68.2</v>
+        <v>67.8</v>
       </c>
       <c r="D183" t="n">
-        <v>68.2</v>
+        <v>67.8</v>
       </c>
       <c r="E183" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="F183" t="n">
-        <v>3114.6549</v>
+        <v>1312.3586</v>
       </c>
       <c r="G183" t="n">
-        <v>68.21999999999998</v>
+        <v>68.21166666666664</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>68</v>
-      </c>
-      <c r="C184" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D184" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>68</v>
-      </c>
-      <c r="F184" t="n">
-        <v>13688</v>
-      </c>
-      <c r="G184" t="n">
-        <v>68.22666666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C185" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D185" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E185" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F185" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>68.23499999999999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E186" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1710</v>
-      </c>
-      <c r="G186" t="n">
-        <v>68.24166666666666</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E187" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F187" t="n">
-        <v>13290</v>
-      </c>
-      <c r="G187" t="n">
-        <v>68.245</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="D188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F188" t="n">
-        <v>16897.76</v>
-      </c>
-      <c r="G188" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E189" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F189" t="n">
-        <v>13922.401</v>
-      </c>
-      <c r="G189" t="n">
-        <v>68.24999999999999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="E190" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G190" t="n">
-        <v>68.24833333333332</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>68</v>
-      </c>
-      <c r="C191" t="n">
-        <v>68</v>
-      </c>
-      <c r="D191" t="n">
-        <v>68</v>
-      </c>
-      <c r="E191" t="n">
-        <v>68</v>
-      </c>
-      <c r="F191" t="n">
-        <v>14849</v>
-      </c>
-      <c r="G191" t="n">
-        <v>68.24833333333332</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="C192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="D192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="E192" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1840.7161</v>
-      </c>
-      <c r="G192" t="n">
-        <v>68.24666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C193" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D193" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="E193" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F193" t="n">
-        <v>125743.6637</v>
-      </c>
-      <c r="G193" t="n">
-        <v>68.24499999999999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E194" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F194" t="n">
-        <v>11872.7842</v>
-      </c>
-      <c r="G194" t="n">
-        <v>68.23666666666666</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E195" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F195" t="n">
-        <v>24561.9999</v>
-      </c>
-      <c r="G195" t="n">
-        <v>68.22333333333333</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="C196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="D196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="E196" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="F196" t="n">
-        <v>12658.1493</v>
-      </c>
-      <c r="G196" t="n">
-        <v>68.21166666666666</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E197" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>68.20333333333333</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E198" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F198" t="n">
-        <v>555.3868</v>
-      </c>
-      <c r="G198" t="n">
-        <v>68.19333333333333</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F199" t="n">
-        <v>302.7194</v>
-      </c>
-      <c r="G199" t="n">
-        <v>68.18166666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="D200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>68.16833333333334</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E201" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F201" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>68.15666666666667</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="D202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E202" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F202" t="n">
-        <v>5648.7484</v>
-      </c>
-      <c r="G202" t="n">
-        <v>68.14500000000001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="C203" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="F203" t="n">
-        <v>66678.0695</v>
-      </c>
-      <c r="G203" t="n">
-        <v>68.13333333333335</v>
-      </c>
-      <c r="H203" t="n">
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
